--- a/Code/Results/Cases/Case_0_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.96361832642175</v>
+        <v>1.034368082591922</v>
       </c>
       <c r="D2">
-        <v>0.9800916293805749</v>
+        <v>1.041609298287207</v>
       </c>
       <c r="E2">
-        <v>0.9743319191005617</v>
+        <v>1.033474052514441</v>
       </c>
       <c r="F2">
-        <v>0.9869034576164222</v>
+        <v>1.049226066498291</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044022329325345</v>
+        <v>1.027156265871282</v>
       </c>
       <c r="J2">
-        <v>0.9869444632189581</v>
+        <v>1.039487710651241</v>
       </c>
       <c r="K2">
-        <v>0.9918354683388076</v>
+        <v>1.044388328897244</v>
       </c>
       <c r="L2">
-        <v>0.9861608247317794</v>
+        <v>1.03627629843877</v>
       </c>
       <c r="M2">
-        <v>0.9985483145753309</v>
+        <v>1.051983715292836</v>
       </c>
       <c r="N2">
-        <v>0.9980962339999827</v>
+        <v>1.016869072439172</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9724794015139474</v>
+        <v>1.036090840985691</v>
       </c>
       <c r="D3">
-        <v>0.9879016612993224</v>
+        <v>1.043173876150562</v>
       </c>
       <c r="E3">
-        <v>0.9817427694606835</v>
+        <v>1.034963823625894</v>
       </c>
       <c r="F3">
-        <v>0.9950642559811511</v>
+        <v>1.050845583589522</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04461243713246</v>
+        <v>1.027161595642365</v>
       </c>
       <c r="J3">
-        <v>0.9937494969046861</v>
+        <v>1.040849662557604</v>
       </c>
       <c r="K3">
-        <v>0.9986917194660389</v>
+        <v>1.045761591950705</v>
       </c>
       <c r="L3">
-        <v>0.9926147107351295</v>
+        <v>1.03757324102424</v>
       </c>
       <c r="M3">
-        <v>1.005760682574963</v>
+        <v>1.053413351595494</v>
       </c>
       <c r="N3">
-        <v>1.000547766910804</v>
+        <v>1.017342462170118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9780147427705805</v>
+        <v>1.037203351613426</v>
       </c>
       <c r="D4">
-        <v>0.9927866100417883</v>
+        <v>1.044184178066086</v>
       </c>
       <c r="E4">
-        <v>0.9863797310035207</v>
+        <v>1.035926005792827</v>
       </c>
       <c r="F4">
-        <v>1.000165850796317</v>
+        <v>1.051890787206321</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044962460021845</v>
+        <v>1.027162428161306</v>
       </c>
       <c r="J4">
-        <v>0.9979980580866995</v>
+        <v>1.041728451986604</v>
       </c>
       <c r="K4">
-        <v>1.002972881097013</v>
+        <v>1.04664762049356</v>
       </c>
       <c r="L4">
-        <v>0.9966453686650367</v>
+        <v>1.038410157628912</v>
       </c>
       <c r="M4">
-        <v>1.010262274557156</v>
+        <v>1.054335218986712</v>
       </c>
       <c r="N4">
-        <v>1.002075752277534</v>
+        <v>1.017647365099939</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9802974956147333</v>
+        <v>1.037670530467942</v>
       </c>
       <c r="D5">
-        <v>0.9948024677553026</v>
+        <v>1.044608420693332</v>
       </c>
       <c r="E5">
-        <v>0.9882936556529172</v>
+        <v>1.036330086592563</v>
       </c>
       <c r="F5">
-        <v>1.002270398953713</v>
+        <v>1.052329547521596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045102190678989</v>
+        <v>1.027162151582084</v>
       </c>
       <c r="J5">
-        <v>0.9997494588763293</v>
+        <v>1.042097310267903</v>
       </c>
       <c r="K5">
-        <v>1.004737843449049</v>
+        <v>1.047019502797079</v>
       </c>
       <c r="L5">
-        <v>0.998307244531824</v>
+        <v>1.038761458039109</v>
       </c>
       <c r="M5">
-        <v>1.012117584848425</v>
+        <v>1.054722015067219</v>
       </c>
       <c r="N5">
-        <v>1.002704980366804</v>
+        <v>1.017775211636366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9806782683657211</v>
+        <v>1.037748941702159</v>
       </c>
       <c r="D6">
-        <v>0.9951387948638377</v>
+        <v>1.044679624573921</v>
       </c>
       <c r="E6">
-        <v>0.9886129998383946</v>
+        <v>1.036397909168052</v>
       </c>
       <c r="F6">
-        <v>1.002621479862906</v>
+        <v>1.052403179899015</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045125222390405</v>
+        <v>1.027162068393254</v>
       </c>
       <c r="J6">
-        <v>1.000041556301744</v>
+        <v>1.04215920919283</v>
       </c>
       <c r="K6">
-        <v>1.005032209120669</v>
+        <v>1.047081908332144</v>
       </c>
       <c r="L6">
-        <v>0.9985844283864317</v>
+        <v>1.038820411567966</v>
       </c>
       <c r="M6">
-        <v>1.012426986240561</v>
+        <v>1.054786915725169</v>
       </c>
       <c r="N6">
-        <v>1.002809882631789</v>
+        <v>1.017796658104804</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.978045415145674</v>
+        <v>1.037209596107824</v>
       </c>
       <c r="D7">
-        <v>0.9928136912124687</v>
+        <v>1.044189848720653</v>
       </c>
       <c r="E7">
-        <v>0.9864054412042024</v>
+        <v>1.035931406778784</v>
       </c>
       <c r="F7">
-        <v>1.00019412632926</v>
+        <v>1.051896652455808</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044964356013989</v>
+        <v>1.027162426927843</v>
       </c>
       <c r="J7">
-        <v>0.9980215937804006</v>
+        <v>1.041733382973045</v>
       </c>
       <c r="K7">
-        <v>1.002996598582656</v>
+        <v>1.046652591963177</v>
       </c>
       <c r="L7">
-        <v>0.9966677001268471</v>
+        <v>1.038414853828443</v>
       </c>
       <c r="M7">
-        <v>1.010287208304025</v>
+        <v>1.054340390335638</v>
       </c>
       <c r="N7">
-        <v>1.002084210643821</v>
+        <v>1.017649074701923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9666560670255203</v>
+        <v>1.034950766337599</v>
       </c>
       <c r="D8">
-        <v>0.9827676435303258</v>
+        <v>1.042138492828384</v>
       </c>
       <c r="E8">
-        <v>0.9768707993553051</v>
+        <v>1.033977906362774</v>
       </c>
       <c r="F8">
-        <v>0.9897002054878852</v>
+        <v>1.049773962149064</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04422847279084</v>
+        <v>1.027158608651842</v>
       </c>
       <c r="J8">
-        <v>0.9892777938538549</v>
+        <v>1.03994850915962</v>
       </c>
       <c r="K8">
-        <v>0.9941862108279784</v>
+        <v>1.044852966519826</v>
       </c>
       <c r="L8">
-        <v>0.9883734608346511</v>
+        <v>1.036715086490537</v>
       </c>
       <c r="M8">
-        <v>1.001021525544134</v>
+        <v>1.052467536686174</v>
       </c>
       <c r="N8">
-        <v>0.9989373407073331</v>
+        <v>1.017029351081565</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9449040104151946</v>
+        <v>1.030952757457459</v>
       </c>
       <c r="D9">
-        <v>0.9636403217261056</v>
+        <v>1.038507291430292</v>
       </c>
       <c r="E9">
-        <v>0.9587311794852678</v>
+        <v>1.030521348962292</v>
       </c>
       <c r="F9">
-        <v>0.9697003707926848</v>
+        <v>1.046012096935203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042677919708665</v>
+        <v>1.027131853018136</v>
       </c>
       <c r="J9">
-        <v>0.9725644906830254</v>
+        <v>1.036783853914034</v>
       </c>
       <c r="K9">
-        <v>0.977352206489513</v>
+        <v>1.041661711735931</v>
       </c>
       <c r="L9">
-        <v>0.9725312897842128</v>
+        <v>1.033701902996088</v>
       </c>
       <c r="M9">
-        <v>0.9833049429018744</v>
+        <v>1.049142356187789</v>
       </c>
       <c r="N9">
-        <v>0.9929033300230077</v>
+        <v>1.01592635418727</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.929003968252556</v>
+        <v>1.028274716318853</v>
       </c>
       <c r="D10">
-        <v>0.949713543147466</v>
+        <v>1.036074748538535</v>
       </c>
       <c r="E10">
-        <v>0.9455334860225044</v>
+        <v>1.028206757659134</v>
       </c>
       <c r="F10">
-        <v>0.955129100085361</v>
+        <v>1.043489102257777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041456958934628</v>
+        <v>1.027100561119203</v>
       </c>
       <c r="J10">
-        <v>0.9603478865269089</v>
+        <v>1.034660352587585</v>
       </c>
       <c r="K10">
-        <v>0.9650542371991784</v>
+        <v>1.039520080066466</v>
       </c>
       <c r="L10">
-        <v>0.960961082602328</v>
+        <v>1.031680433621443</v>
       </c>
       <c r="M10">
-        <v>0.9703586965350439</v>
+        <v>1.046908154829334</v>
       </c>
       <c r="N10">
-        <v>0.988483280765751</v>
+        <v>1.015183437417094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9217130710779485</v>
+        <v>1.027111897267574</v>
       </c>
       <c r="D11">
-        <v>0.9433443225175278</v>
+        <v>1.035018492761381</v>
       </c>
       <c r="E11">
-        <v>0.9395001774490559</v>
+        <v>1.027201945462433</v>
       </c>
       <c r="F11">
-        <v>0.9484640700436878</v>
+        <v>1.042392885553794</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040879273823231</v>
+        <v>1.027083821480474</v>
       </c>
       <c r="J11">
-        <v>0.95474875252778</v>
+        <v>1.033737454076959</v>
       </c>
       <c r="K11">
-        <v>0.9594200729588411</v>
+        <v>1.03858923874526</v>
       </c>
       <c r="L11">
-        <v>0.9556609318782779</v>
+        <v>1.030801974268851</v>
       </c>
       <c r="M11">
-        <v>0.9644280297500619</v>
+        <v>1.045936450293862</v>
       </c>
       <c r="N11">
-        <v>0.9864561353223927</v>
+        <v>1.014859899042394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9189361721704915</v>
+        <v>1.026679476273861</v>
       </c>
       <c r="D12">
-        <v>0.940921384562862</v>
+        <v>1.034625696064873</v>
       </c>
       <c r="E12">
-        <v>0.9372054097372263</v>
+        <v>1.026828313471436</v>
       </c>
       <c r="F12">
-        <v>0.9459285538641021</v>
+        <v>1.041985126033558</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040656860650429</v>
+        <v>1.027077124378558</v>
       </c>
       <c r="J12">
-        <v>0.9526168823026092</v>
+        <v>1.033394124054273</v>
       </c>
       <c r="K12">
-        <v>0.9572752675012071</v>
+        <v>1.038242944718922</v>
       </c>
       <c r="L12">
-        <v>0.9536433536732901</v>
+        <v>1.030475190564482</v>
       </c>
       <c r="M12">
-        <v>0.9621705570397193</v>
+        <v>1.045574860627635</v>
       </c>
       <c r="N12">
-        <v>0.9856841882781687</v>
+        <v>1.014739440271352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9195350763489339</v>
+        <v>1.026772254849608</v>
       </c>
       <c r="D13">
-        <v>0.9414438101001202</v>
+        <v>1.034709973151465</v>
       </c>
       <c r="E13">
-        <v>0.9377001820577925</v>
+        <v>1.026908477105743</v>
       </c>
       <c r="F13">
-        <v>0.9464752533748613</v>
+        <v>1.042072618109457</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040704932094594</v>
+        <v>1.027078582616981</v>
       </c>
       <c r="J13">
-        <v>0.953076635090545</v>
+        <v>1.03346779344054</v>
       </c>
       <c r="K13">
-        <v>0.9577377906083163</v>
+        <v>1.038317250510816</v>
       </c>
       <c r="L13">
-        <v>0.9540784373087785</v>
+        <v>1.030545308903105</v>
       </c>
       <c r="M13">
-        <v>0.9626573651185993</v>
+        <v>1.045652452691611</v>
       </c>
       <c r="N13">
-        <v>0.9858506675316689</v>
+        <v>1.014765291925261</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9214849836424633</v>
+        <v>1.027076163470251</v>
       </c>
       <c r="D14">
-        <v>0.9431452469974539</v>
+        <v>1.034986033448994</v>
       </c>
       <c r="E14">
-        <v>0.9393116248896877</v>
+        <v>1.027171069158528</v>
       </c>
       <c r="F14">
-        <v>0.9482557450640742</v>
+        <v>1.042359191849602</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040861051948241</v>
+        <v>1.027083277672605</v>
       </c>
       <c r="J14">
-        <v>0.9545736305690106</v>
+        <v>1.033709085080182</v>
       </c>
       <c r="K14">
-        <v>0.9592438798996481</v>
+        <v>1.03856062502131</v>
       </c>
       <c r="L14">
-        <v>0.9554951889354042</v>
+        <v>1.03077497218281</v>
       </c>
       <c r="M14">
-        <v>0.964242576266488</v>
+        <v>1.045906574619158</v>
       </c>
       <c r="N14">
-        <v>0.9863927256166261</v>
+        <v>1.01484994766431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9226770228060771</v>
+        <v>1.027263345099956</v>
       </c>
       <c r="D15">
-        <v>0.9441857838238129</v>
+        <v>1.035156062449606</v>
       </c>
       <c r="E15">
-        <v>0.940297175522163</v>
+        <v>1.027332807406856</v>
       </c>
       <c r="F15">
-        <v>0.9493446261146981</v>
+        <v>1.042535682681884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040956188747482</v>
+        <v>1.027086106945396</v>
       </c>
       <c r="J15">
-        <v>0.9554888889842535</v>
+        <v>1.033857682960045</v>
       </c>
       <c r="K15">
-        <v>0.9601647530347089</v>
+        <v>1.038710504417645</v>
       </c>
       <c r="L15">
-        <v>0.9563614475033341</v>
+        <v>1.030916410721935</v>
       </c>
       <c r="M15">
-        <v>0.9652118581363339</v>
+        <v>1.046063060319152</v>
       </c>
       <c r="N15">
-        <v>0.9867241265158518</v>
+        <v>1.0149020693368</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9294786569625521</v>
+        <v>1.028351819804038</v>
       </c>
       <c r="D16">
-        <v>0.9501286020050183</v>
+        <v>1.036144785501769</v>
       </c>
       <c r="E16">
-        <v>0.9459267067114775</v>
+        <v>1.028273388332793</v>
       </c>
       <c r="F16">
-        <v>0.9555634228811222</v>
+        <v>1.04356177453904</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041494227006305</v>
+        <v>1.027101604865038</v>
       </c>
       <c r="J16">
-        <v>0.9607125076472578</v>
+        <v>1.034721529459916</v>
       </c>
       <c r="K16">
-        <v>0.9654211911096002</v>
+        <v>1.039581782147816</v>
       </c>
       <c r="L16">
-        <v>0.9613062932966859</v>
+        <v>1.031738666728805</v>
       </c>
       <c r="M16">
-        <v>0.9707449824518851</v>
+        <v>1.046972552431582</v>
       </c>
       <c r="N16">
-        <v>0.9886152701254124</v>
+        <v>1.015204870248428</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9336313861477463</v>
+        <v>1.029033720678586</v>
       </c>
       <c r="D17">
-        <v>0.9537615969194981</v>
+        <v>1.03676418659045</v>
       </c>
       <c r="E17">
-        <v>0.9493688317599051</v>
+        <v>1.028862690636722</v>
       </c>
       <c r="F17">
-        <v>0.9593649272218941</v>
+        <v>1.044204403215414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041818295468728</v>
+        <v>1.027110472252527</v>
       </c>
       <c r="J17">
-        <v>0.9639026647965162</v>
+        <v>1.035262476341021</v>
       </c>
       <c r="K17">
-        <v>0.968632018306585</v>
+        <v>1.040127365864617</v>
       </c>
       <c r="L17">
-        <v>0.9643269339013054</v>
+        <v>1.032253594786273</v>
       </c>
       <c r="M17">
-        <v>0.9741250333279563</v>
+        <v>1.047541898180824</v>
       </c>
       <c r="N17">
-        <v>0.9897699357485938</v>
+        <v>1.015394310880253</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9360150109346328</v>
+        <v>1.029431153336271</v>
       </c>
       <c r="D18">
-        <v>0.9558484414686165</v>
+        <v>1.037125189167885</v>
       </c>
       <c r="E18">
-        <v>0.9513462679570112</v>
+        <v>1.029206172730214</v>
       </c>
       <c r="F18">
-        <v>0.9615484593003378</v>
+        <v>1.044578877385572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042002627121957</v>
+        <v>1.027115336658006</v>
       </c>
       <c r="J18">
-        <v>0.9657340186689277</v>
+        <v>1.035577673482396</v>
       </c>
       <c r="K18">
-        <v>0.9704754444528731</v>
+        <v>1.040445258681405</v>
       </c>
       <c r="L18">
-        <v>0.9660612253206768</v>
+        <v>1.032553640491032</v>
       </c>
       <c r="M18">
-        <v>0.9760656528577994</v>
+        <v>1.047873575741199</v>
       </c>
       <c r="N18">
-        <v>0.990432656176412</v>
+        <v>1.015504630134376</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9368214324061405</v>
+        <v>1.02956661574261</v>
       </c>
       <c r="D19">
-        <v>0.9565547081725675</v>
+        <v>1.037248234013572</v>
       </c>
       <c r="E19">
-        <v>0.9520155454519409</v>
+        <v>1.029323249565262</v>
       </c>
       <c r="F19">
-        <v>0.9622874275705141</v>
+        <v>1.044706502696974</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042064696704477</v>
+        <v>1.027116943086824</v>
       </c>
       <c r="J19">
-        <v>0.9663536300378615</v>
+        <v>1.035685092295276</v>
       </c>
       <c r="K19">
-        <v>0.9710991735996279</v>
+        <v>1.040553595133076</v>
       </c>
       <c r="L19">
-        <v>0.9666480384161396</v>
+        <v>1.032655897256173</v>
       </c>
       <c r="M19">
-        <v>0.9767222704668611</v>
+        <v>1.047986599672073</v>
       </c>
       <c r="N19">
-        <v>0.9906568530491154</v>
+        <v>1.015542216038983</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9331898808274661</v>
+        <v>1.028960591202368</v>
       </c>
       <c r="D20">
-        <v>0.953375185114905</v>
+        <v>1.036697760145337</v>
       </c>
       <c r="E20">
-        <v>0.9490026971982491</v>
+        <v>1.02879948981602</v>
       </c>
       <c r="F20">
-        <v>0.9589606028228855</v>
+        <v>1.044135492601075</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041784014470824</v>
+        <v>1.027109552702002</v>
       </c>
       <c r="J20">
-        <v>0.9635634708474385</v>
+        <v>1.035204471878217</v>
       </c>
       <c r="K20">
-        <v>0.9682906047245563</v>
+        <v>1.040068864833855</v>
       </c>
       <c r="L20">
-        <v>0.9640057374279418</v>
+        <v>1.032198379315561</v>
       </c>
       <c r="M20">
-        <v>0.9737656211129679</v>
+        <v>1.047480855492456</v>
       </c>
       <c r="N20">
-        <v>0.9896471788238125</v>
+        <v>1.015374004162019</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9209127510988615</v>
+        <v>1.026986683839123</v>
       </c>
       <c r="D21">
-        <v>0.9426458487193127</v>
+        <v>1.034904753274598</v>
       </c>
       <c r="E21">
-        <v>0.9388386306024995</v>
+        <v>1.027093753487418</v>
       </c>
       <c r="F21">
-        <v>0.9477331433380393</v>
+        <v>1.042274819030061</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040815299047519</v>
+        <v>1.027081908325536</v>
       </c>
       <c r="J21">
-        <v>0.954134291361312</v>
+        <v>1.033638045282833</v>
       </c>
       <c r="K21">
-        <v>0.9588018602486591</v>
+        <v>1.038488972246962</v>
       </c>
       <c r="L21">
-        <v>0.9550793868971446</v>
+        <v>1.030707355547192</v>
       </c>
       <c r="M21">
-        <v>0.9637773285330777</v>
+        <v>1.045831760234696</v>
       </c>
       <c r="N21">
-        <v>0.9862336443337097</v>
+        <v>1.014825026483548</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9127910199355742</v>
+        <v>1.025742719307434</v>
       </c>
       <c r="D22">
-        <v>0.9355654255874648</v>
+        <v>1.033774772167689</v>
       </c>
       <c r="E22">
-        <v>0.932133502798257</v>
+        <v>1.026018968752129</v>
       </c>
       <c r="F22">
-        <v>0.9403237855368834</v>
+        <v>1.041101601381904</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040160598311157</v>
+        <v>1.027061754377649</v>
       </c>
       <c r="J22">
-        <v>0.947900757268439</v>
+        <v>1.032650130342138</v>
       </c>
       <c r="K22">
-        <v>0.952531350156771</v>
+        <v>1.037492511579905</v>
       </c>
       <c r="L22">
-        <v>0.9491809626022564</v>
+        <v>1.029767079071645</v>
       </c>
       <c r="M22">
-        <v>0.957177979182903</v>
+        <v>1.044791110858421</v>
       </c>
       <c r="N22">
-        <v>0.9839763915024771</v>
+        <v>1.014478227515966</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9171376355599352</v>
+        <v>1.026402447833621</v>
       </c>
       <c r="D23">
-        <v>0.9393529785364576</v>
+        <v>1.034374051859931</v>
       </c>
       <c r="E23">
-        <v>0.9357200807312649</v>
+        <v>1.026588956668576</v>
       </c>
       <c r="F23">
-        <v>0.9442872757423415</v>
+        <v>1.041723867213126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04051217359129</v>
+        <v>1.027072701200847</v>
       </c>
       <c r="J23">
-        <v>0.9512363473801844</v>
+        <v>1.033174135093025</v>
       </c>
       <c r="K23">
-        <v>0.9558864783176635</v>
+        <v>1.038021054025327</v>
       </c>
       <c r="L23">
-        <v>0.9523369651832327</v>
+        <v>1.030265807734766</v>
       </c>
       <c r="M23">
-        <v>0.9607088899062218</v>
+        <v>1.04534314288204</v>
       </c>
       <c r="N23">
-        <v>0.9851842795650149</v>
+        <v>1.0146622285944</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9333894967714801</v>
+        <v>1.028993636218226</v>
       </c>
       <c r="D24">
-        <v>0.9535498870894947</v>
+        <v>1.03672777627287</v>
       </c>
       <c r="E24">
-        <v>0.9491682308439368</v>
+        <v>1.028828048312639</v>
       </c>
       <c r="F24">
-        <v>0.9591434036622351</v>
+        <v>1.044166631454694</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041799519043081</v>
+        <v>1.027109969158478</v>
       </c>
       <c r="J24">
-        <v>0.9637168284672166</v>
+        <v>1.035230682611704</v>
       </c>
       <c r="K24">
-        <v>0.9684449652555006</v>
+        <v>1.04009529997259</v>
       </c>
       <c r="L24">
-        <v>0.9641509571852839</v>
+        <v>1.032223329746637</v>
       </c>
       <c r="M24">
-        <v>0.973928119111939</v>
+        <v>1.047508439329427</v>
       </c>
       <c r="N24">
-        <v>0.9897026805526924</v>
+        <v>1.015383180444727</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9507519445772243</v>
+        <v>1.031988516264757</v>
       </c>
       <c r="D25">
-        <v>0.9687744902160719</v>
+        <v>1.039448063216481</v>
       </c>
       <c r="E25">
-        <v>0.9635985815749335</v>
+        <v>1.031416705469276</v>
       </c>
       <c r="F25">
-        <v>0.9750706231793248</v>
+        <v>1.046987237175486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043110417156424</v>
+        <v>1.027141142171841</v>
       </c>
       <c r="J25">
-        <v>0.9770584927986284</v>
+        <v>1.037604366462381</v>
       </c>
       <c r="K25">
-        <v>0.9818776882585939</v>
+        <v>1.042489171637353</v>
       </c>
       <c r="L25">
-        <v>0.9767895518102085</v>
+        <v>1.034483074221182</v>
       </c>
       <c r="M25">
-        <v>0.9880686695371563</v>
+        <v>1.050005018279794</v>
       </c>
       <c r="N25">
-        <v>0.9945276644401532</v>
+        <v>1.016212826519011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034368082591922</v>
+        <v>0.9636183264217488</v>
       </c>
       <c r="D2">
-        <v>1.041609298287207</v>
+        <v>0.9800916293805737</v>
       </c>
       <c r="E2">
-        <v>1.033474052514441</v>
+        <v>0.9743319191005608</v>
       </c>
       <c r="F2">
-        <v>1.049226066498291</v>
+        <v>0.986903457616421</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027156265871282</v>
+        <v>1.044022329325345</v>
       </c>
       <c r="J2">
-        <v>1.039487710651241</v>
+        <v>0.986944463218957</v>
       </c>
       <c r="K2">
-        <v>1.044388328897244</v>
+        <v>0.9918354683388066</v>
       </c>
       <c r="L2">
-        <v>1.03627629843877</v>
+        <v>0.9861608247317782</v>
       </c>
       <c r="M2">
-        <v>1.051983715292836</v>
+        <v>0.9985483145753296</v>
       </c>
       <c r="N2">
-        <v>1.016869072439172</v>
+        <v>0.9980962339999823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036090840985691</v>
+        <v>0.9724794015139487</v>
       </c>
       <c r="D3">
-        <v>1.043173876150562</v>
+        <v>0.987901661299324</v>
       </c>
       <c r="E3">
-        <v>1.034963823625894</v>
+        <v>0.9817427694606847</v>
       </c>
       <c r="F3">
-        <v>1.050845583589522</v>
+        <v>0.9950642559811522</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027161595642365</v>
+        <v>1.04461243713246</v>
       </c>
       <c r="J3">
-        <v>1.040849662557604</v>
+        <v>0.9937494969046874</v>
       </c>
       <c r="K3">
-        <v>1.045761591950705</v>
+        <v>0.9986917194660403</v>
       </c>
       <c r="L3">
-        <v>1.03757324102424</v>
+        <v>0.9926147107351306</v>
       </c>
       <c r="M3">
-        <v>1.053413351595494</v>
+        <v>1.005760682574964</v>
       </c>
       <c r="N3">
-        <v>1.017342462170118</v>
+        <v>1.000547766910804</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037203351613426</v>
+        <v>0.9780147427705816</v>
       </c>
       <c r="D4">
-        <v>1.044184178066086</v>
+        <v>0.9927866100417893</v>
       </c>
       <c r="E4">
-        <v>1.035926005792827</v>
+        <v>0.9863797310035214</v>
       </c>
       <c r="F4">
-        <v>1.051890787206321</v>
+        <v>1.000165850796318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027162428161306</v>
+        <v>1.044962460021845</v>
       </c>
       <c r="J4">
-        <v>1.041728451986604</v>
+        <v>0.9979980580867005</v>
       </c>
       <c r="K4">
-        <v>1.04664762049356</v>
+        <v>1.002972881097014</v>
       </c>
       <c r="L4">
-        <v>1.038410157628912</v>
+        <v>0.9966453686650375</v>
       </c>
       <c r="M4">
-        <v>1.054335218986712</v>
+        <v>1.010262274557157</v>
       </c>
       <c r="N4">
-        <v>1.017647365099939</v>
+        <v>1.002075752277534</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037670530467942</v>
+        <v>0.9802974956147308</v>
       </c>
       <c r="D5">
-        <v>1.044608420693332</v>
+        <v>0.9948024677553002</v>
       </c>
       <c r="E5">
-        <v>1.036330086592563</v>
+        <v>0.9882936556529152</v>
       </c>
       <c r="F5">
-        <v>1.052329547521596</v>
+        <v>1.002270398953711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027162151582084</v>
+        <v>1.045102190678989</v>
       </c>
       <c r="J5">
-        <v>1.042097310267903</v>
+        <v>0.9997494588763272</v>
       </c>
       <c r="K5">
-        <v>1.047019502797079</v>
+        <v>1.004737843449047</v>
       </c>
       <c r="L5">
-        <v>1.038761458039109</v>
+        <v>0.9983072445318218</v>
       </c>
       <c r="M5">
-        <v>1.054722015067219</v>
+        <v>1.012117584848423</v>
       </c>
       <c r="N5">
-        <v>1.017775211636366</v>
+        <v>1.002704980366803</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037748941702159</v>
+        <v>0.9806782683657206</v>
       </c>
       <c r="D6">
-        <v>1.044679624573921</v>
+        <v>0.9951387948638376</v>
       </c>
       <c r="E6">
-        <v>1.036397909168052</v>
+        <v>0.988612999838394</v>
       </c>
       <c r="F6">
-        <v>1.052403179899015</v>
+        <v>1.002621479862906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027162068393254</v>
+        <v>1.045125222390404</v>
       </c>
       <c r="J6">
-        <v>1.04215920919283</v>
+        <v>1.000041556301744</v>
       </c>
       <c r="K6">
-        <v>1.047081908332144</v>
+        <v>1.005032209120669</v>
       </c>
       <c r="L6">
-        <v>1.038820411567966</v>
+        <v>0.9985844283864314</v>
       </c>
       <c r="M6">
-        <v>1.054786915725169</v>
+        <v>1.012426986240561</v>
       </c>
       <c r="N6">
-        <v>1.017796658104804</v>
+        <v>1.002809882631789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037209596107824</v>
+        <v>0.9780454151456743</v>
       </c>
       <c r="D7">
-        <v>1.044189848720653</v>
+        <v>0.9928136912124689</v>
       </c>
       <c r="E7">
-        <v>1.035931406778784</v>
+        <v>0.9864054412042025</v>
       </c>
       <c r="F7">
-        <v>1.051896652455808</v>
+        <v>1.00019412632926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027162426927843</v>
+        <v>1.044964356013989</v>
       </c>
       <c r="J7">
-        <v>1.041733382973045</v>
+        <v>0.9980215937804007</v>
       </c>
       <c r="K7">
-        <v>1.046652591963177</v>
+        <v>1.002996598582656</v>
       </c>
       <c r="L7">
-        <v>1.038414853828443</v>
+        <v>0.9966677001268472</v>
       </c>
       <c r="M7">
-        <v>1.054340390335638</v>
+        <v>1.010287208304026</v>
       </c>
       <c r="N7">
-        <v>1.017649074701923</v>
+        <v>1.002084210643821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034950766337599</v>
+        <v>0.9666560670255213</v>
       </c>
       <c r="D8">
-        <v>1.042138492828384</v>
+        <v>0.9827676435303268</v>
       </c>
       <c r="E8">
-        <v>1.033977906362774</v>
+        <v>0.9768707993553065</v>
       </c>
       <c r="F8">
-        <v>1.049773962149064</v>
+        <v>0.9897002054878861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027158608651842</v>
+        <v>1.04422847279084</v>
       </c>
       <c r="J8">
-        <v>1.03994850915962</v>
+        <v>0.9892777938538562</v>
       </c>
       <c r="K8">
-        <v>1.044852966519826</v>
+        <v>0.9941862108279794</v>
       </c>
       <c r="L8">
-        <v>1.036715086490537</v>
+        <v>0.9883734608346525</v>
       </c>
       <c r="M8">
-        <v>1.052467536686174</v>
+        <v>1.001021525544134</v>
       </c>
       <c r="N8">
-        <v>1.017029351081565</v>
+        <v>0.9989373407073336</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030952757457459</v>
+        <v>0.944904010415193</v>
       </c>
       <c r="D9">
-        <v>1.038507291430292</v>
+        <v>0.9636403217261037</v>
       </c>
       <c r="E9">
-        <v>1.030521348962292</v>
+        <v>0.9587311794852659</v>
       </c>
       <c r="F9">
-        <v>1.046012096935203</v>
+        <v>0.9697003707926828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027131853018136</v>
+        <v>1.042677919708664</v>
       </c>
       <c r="J9">
-        <v>1.036783853914034</v>
+        <v>0.9725644906830236</v>
       </c>
       <c r="K9">
-        <v>1.041661711735931</v>
+        <v>0.9773522064895113</v>
       </c>
       <c r="L9">
-        <v>1.033701902996088</v>
+        <v>0.9725312897842112</v>
       </c>
       <c r="M9">
-        <v>1.049142356187789</v>
+        <v>0.9833049429018725</v>
       </c>
       <c r="N9">
-        <v>1.01592635418727</v>
+        <v>0.992903330023007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028274716318853</v>
+        <v>0.9290039682525564</v>
       </c>
       <c r="D10">
-        <v>1.036074748538535</v>
+        <v>0.9497135431474663</v>
       </c>
       <c r="E10">
-        <v>1.028206757659134</v>
+        <v>0.9455334860225045</v>
       </c>
       <c r="F10">
-        <v>1.043489102257777</v>
+        <v>0.9551291000853609</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027100561119203</v>
+        <v>1.041456958934628</v>
       </c>
       <c r="J10">
-        <v>1.034660352587585</v>
+        <v>0.9603478865269091</v>
       </c>
       <c r="K10">
-        <v>1.039520080066466</v>
+        <v>0.9650542371991783</v>
       </c>
       <c r="L10">
-        <v>1.031680433621443</v>
+        <v>0.960961082602328</v>
       </c>
       <c r="M10">
-        <v>1.046908154829334</v>
+        <v>0.9703586965350439</v>
       </c>
       <c r="N10">
-        <v>1.015183437417094</v>
+        <v>0.9884832807657511</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027111897267574</v>
+        <v>0.9217130710779486</v>
       </c>
       <c r="D11">
-        <v>1.035018492761381</v>
+        <v>0.9433443225175283</v>
       </c>
       <c r="E11">
-        <v>1.027201945462433</v>
+        <v>0.9395001774490558</v>
       </c>
       <c r="F11">
-        <v>1.042392885553794</v>
+        <v>0.948464070043688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027083821480474</v>
+        <v>1.040879273823231</v>
       </c>
       <c r="J11">
-        <v>1.033737454076959</v>
+        <v>0.9547487525277801</v>
       </c>
       <c r="K11">
-        <v>1.03858923874526</v>
+        <v>0.9594200729588414</v>
       </c>
       <c r="L11">
-        <v>1.030801974268851</v>
+        <v>0.9556609318782781</v>
       </c>
       <c r="M11">
-        <v>1.045936450293862</v>
+        <v>0.9644280297500621</v>
       </c>
       <c r="N11">
-        <v>1.014859899042394</v>
+        <v>0.9864561353223928</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026679476273861</v>
+        <v>0.9189361721704915</v>
       </c>
       <c r="D12">
-        <v>1.034625696064873</v>
+        <v>0.9409213845628621</v>
       </c>
       <c r="E12">
-        <v>1.026828313471436</v>
+        <v>0.9372054097372265</v>
       </c>
       <c r="F12">
-        <v>1.041985126033558</v>
+        <v>0.9459285538641019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027077124378558</v>
+        <v>1.040656860650429</v>
       </c>
       <c r="J12">
-        <v>1.033394124054273</v>
+        <v>0.9526168823026094</v>
       </c>
       <c r="K12">
-        <v>1.038242944718922</v>
+        <v>0.9572752675012073</v>
       </c>
       <c r="L12">
-        <v>1.030475190564482</v>
+        <v>0.9536433536732905</v>
       </c>
       <c r="M12">
-        <v>1.045574860627635</v>
+        <v>0.9621705570397194</v>
       </c>
       <c r="N12">
-        <v>1.014739440271352</v>
+        <v>0.9856841882781688</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026772254849608</v>
+        <v>0.9195350763489329</v>
       </c>
       <c r="D13">
-        <v>1.034709973151465</v>
+        <v>0.9414438101001193</v>
       </c>
       <c r="E13">
-        <v>1.026908477105743</v>
+        <v>0.937700182057791</v>
       </c>
       <c r="F13">
-        <v>1.042072618109457</v>
+        <v>0.94647525337486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027078582616981</v>
+        <v>1.040704932094593</v>
       </c>
       <c r="J13">
-        <v>1.03346779344054</v>
+        <v>0.9530766350905439</v>
       </c>
       <c r="K13">
-        <v>1.038317250510816</v>
+        <v>0.9577377906083151</v>
       </c>
       <c r="L13">
-        <v>1.030545308903105</v>
+        <v>0.9540784373087774</v>
       </c>
       <c r="M13">
-        <v>1.045652452691611</v>
+        <v>0.9626573651185982</v>
       </c>
       <c r="N13">
-        <v>1.014765291925261</v>
+        <v>0.9858506675316684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027076163470251</v>
+        <v>0.9214849836424627</v>
       </c>
       <c r="D14">
-        <v>1.034986033448994</v>
+        <v>0.9431452469974534</v>
       </c>
       <c r="E14">
-        <v>1.027171069158528</v>
+        <v>0.9393116248896871</v>
       </c>
       <c r="F14">
-        <v>1.042359191849602</v>
+        <v>0.9482557450640734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027083277672605</v>
+        <v>1.040861051948241</v>
       </c>
       <c r="J14">
-        <v>1.033709085080182</v>
+        <v>0.95457363056901</v>
       </c>
       <c r="K14">
-        <v>1.03856062502131</v>
+        <v>0.9592438798996477</v>
       </c>
       <c r="L14">
-        <v>1.03077497218281</v>
+        <v>0.9554951889354036</v>
       </c>
       <c r="M14">
-        <v>1.045906574619158</v>
+        <v>0.9642425762664872</v>
       </c>
       <c r="N14">
-        <v>1.01484994766431</v>
+        <v>0.9863927256166259</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027263345099956</v>
+        <v>0.922677022806075</v>
       </c>
       <c r="D15">
-        <v>1.035156062449606</v>
+        <v>0.9441857838238109</v>
       </c>
       <c r="E15">
-        <v>1.027332807406856</v>
+        <v>0.9402971755221607</v>
       </c>
       <c r="F15">
-        <v>1.042535682681884</v>
+        <v>0.9493446261146966</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027086106945396</v>
+        <v>1.040956188747482</v>
       </c>
       <c r="J15">
-        <v>1.033857682960045</v>
+        <v>0.9554888889842514</v>
       </c>
       <c r="K15">
-        <v>1.038710504417645</v>
+        <v>0.9601647530347071</v>
       </c>
       <c r="L15">
-        <v>1.030916410721935</v>
+        <v>0.9563614475033315</v>
       </c>
       <c r="M15">
-        <v>1.046063060319152</v>
+        <v>0.9652118581363324</v>
       </c>
       <c r="N15">
-        <v>1.0149020693368</v>
+        <v>0.9867241265158513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028351819804038</v>
+        <v>0.9294786569625523</v>
       </c>
       <c r="D16">
-        <v>1.036144785501769</v>
+        <v>0.9501286020050185</v>
       </c>
       <c r="E16">
-        <v>1.028273388332793</v>
+        <v>0.9459267067114773</v>
       </c>
       <c r="F16">
-        <v>1.04356177453904</v>
+        <v>0.9555634228811225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027101604865038</v>
+        <v>1.041494227006305</v>
       </c>
       <c r="J16">
-        <v>1.034721529459916</v>
+        <v>0.9607125076472579</v>
       </c>
       <c r="K16">
-        <v>1.039581782147816</v>
+        <v>0.9654211911096005</v>
       </c>
       <c r="L16">
-        <v>1.031738666728805</v>
+        <v>0.9613062932966858</v>
       </c>
       <c r="M16">
-        <v>1.046972552431582</v>
+        <v>0.9707449824518857</v>
       </c>
       <c r="N16">
-        <v>1.015204870248428</v>
+        <v>0.9886152701254126</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029033720678586</v>
+        <v>0.9336313861477474</v>
       </c>
       <c r="D17">
-        <v>1.03676418659045</v>
+        <v>0.9537615969194991</v>
       </c>
       <c r="E17">
-        <v>1.028862690636722</v>
+        <v>0.9493688317599058</v>
       </c>
       <c r="F17">
-        <v>1.044204403215414</v>
+        <v>0.9593649272218949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027110472252527</v>
+        <v>1.041818295468728</v>
       </c>
       <c r="J17">
-        <v>1.035262476341021</v>
+        <v>0.963902664796517</v>
       </c>
       <c r="K17">
-        <v>1.040127365864617</v>
+        <v>0.9686320183065856</v>
       </c>
       <c r="L17">
-        <v>1.032253594786273</v>
+        <v>0.9643269339013062</v>
       </c>
       <c r="M17">
-        <v>1.047541898180824</v>
+        <v>0.9741250333279573</v>
       </c>
       <c r="N17">
-        <v>1.015394310880253</v>
+        <v>0.9897699357485943</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029431153336271</v>
+        <v>0.9360150109346325</v>
       </c>
       <c r="D18">
-        <v>1.037125189167885</v>
+        <v>0.955848441468616</v>
       </c>
       <c r="E18">
-        <v>1.029206172730214</v>
+        <v>0.9513462679570108</v>
       </c>
       <c r="F18">
-        <v>1.044578877385572</v>
+        <v>0.9615484593003375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027115336658006</v>
+        <v>1.042002627121957</v>
       </c>
       <c r="J18">
-        <v>1.035577673482396</v>
+        <v>0.9657340186689275</v>
       </c>
       <c r="K18">
-        <v>1.040445258681405</v>
+        <v>0.9704754444528725</v>
       </c>
       <c r="L18">
-        <v>1.032553640491032</v>
+        <v>0.9660612253206765</v>
       </c>
       <c r="M18">
-        <v>1.047873575741199</v>
+        <v>0.9760656528577989</v>
       </c>
       <c r="N18">
-        <v>1.015504630134376</v>
+        <v>0.9904326561764117</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02956661574261</v>
+        <v>0.9368214324061419</v>
       </c>
       <c r="D19">
-        <v>1.037248234013572</v>
+        <v>0.9565547081725688</v>
       </c>
       <c r="E19">
-        <v>1.029323249565262</v>
+        <v>0.9520155454519421</v>
       </c>
       <c r="F19">
-        <v>1.044706502696974</v>
+        <v>0.9622874275705153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027116943086824</v>
+        <v>1.042064696704477</v>
       </c>
       <c r="J19">
-        <v>1.035685092295276</v>
+        <v>0.9663536300378626</v>
       </c>
       <c r="K19">
-        <v>1.040553595133076</v>
+        <v>0.9710991735996293</v>
       </c>
       <c r="L19">
-        <v>1.032655897256173</v>
+        <v>0.9666480384161404</v>
       </c>
       <c r="M19">
-        <v>1.047986599672073</v>
+        <v>0.9767222704668624</v>
       </c>
       <c r="N19">
-        <v>1.015542216038983</v>
+        <v>0.9906568530491159</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028960591202368</v>
+        <v>0.9331898808274658</v>
       </c>
       <c r="D20">
-        <v>1.036697760145337</v>
+        <v>0.9533751851149048</v>
       </c>
       <c r="E20">
-        <v>1.02879948981602</v>
+        <v>0.9490026971982487</v>
       </c>
       <c r="F20">
-        <v>1.044135492601075</v>
+        <v>0.9589606028228852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027109552702002</v>
+        <v>1.041784014470824</v>
       </c>
       <c r="J20">
-        <v>1.035204471878217</v>
+        <v>0.9635634708474383</v>
       </c>
       <c r="K20">
-        <v>1.040068864833855</v>
+        <v>0.968290604724556</v>
       </c>
       <c r="L20">
-        <v>1.032198379315561</v>
+        <v>0.9640057374279414</v>
       </c>
       <c r="M20">
-        <v>1.047480855492456</v>
+        <v>0.9737656211129677</v>
       </c>
       <c r="N20">
-        <v>1.015374004162019</v>
+        <v>0.9896471788238124</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026986683839123</v>
+        <v>0.9209127510988646</v>
       </c>
       <c r="D21">
-        <v>1.034904753274598</v>
+        <v>0.9426458487193157</v>
       </c>
       <c r="E21">
-        <v>1.027093753487418</v>
+        <v>0.9388386306025022</v>
       </c>
       <c r="F21">
-        <v>1.042274819030061</v>
+        <v>0.9477331433380423</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027081908325536</v>
+        <v>1.040815299047519</v>
       </c>
       <c r="J21">
-        <v>1.033638045282833</v>
+        <v>0.9541342913613149</v>
       </c>
       <c r="K21">
-        <v>1.038488972246962</v>
+        <v>0.9588018602486621</v>
       </c>
       <c r="L21">
-        <v>1.030707355547192</v>
+        <v>0.955079386897147</v>
       </c>
       <c r="M21">
-        <v>1.045831760234696</v>
+        <v>0.9637773285330805</v>
       </c>
       <c r="N21">
-        <v>1.014825026483548</v>
+        <v>0.9862336443337106</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025742719307434</v>
+        <v>0.9127910199355749</v>
       </c>
       <c r="D22">
-        <v>1.033774772167689</v>
+        <v>0.9355654255874652</v>
       </c>
       <c r="E22">
-        <v>1.026018968752129</v>
+        <v>0.9321335027982576</v>
       </c>
       <c r="F22">
-        <v>1.041101601381904</v>
+        <v>0.9403237855368838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027061754377649</v>
+        <v>1.040160598311157</v>
       </c>
       <c r="J22">
-        <v>1.032650130342138</v>
+        <v>0.9479007572684395</v>
       </c>
       <c r="K22">
-        <v>1.037492511579905</v>
+        <v>0.9525313501567716</v>
       </c>
       <c r="L22">
-        <v>1.029767079071645</v>
+        <v>0.9491809626022569</v>
       </c>
       <c r="M22">
-        <v>1.044791110858421</v>
+        <v>0.9571779791829035</v>
       </c>
       <c r="N22">
-        <v>1.014478227515966</v>
+        <v>0.9839763915024773</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026402447833621</v>
+        <v>0.9171376355599357</v>
       </c>
       <c r="D23">
-        <v>1.034374051859931</v>
+        <v>0.9393529785364579</v>
       </c>
       <c r="E23">
-        <v>1.026588956668576</v>
+        <v>0.9357200807312649</v>
       </c>
       <c r="F23">
-        <v>1.041723867213126</v>
+        <v>0.9442872757423419</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027072701200847</v>
+        <v>1.04051217359129</v>
       </c>
       <c r="J23">
-        <v>1.033174135093025</v>
+        <v>0.9512363473801846</v>
       </c>
       <c r="K23">
-        <v>1.038021054025327</v>
+        <v>0.9558864783176639</v>
       </c>
       <c r="L23">
-        <v>1.030265807734766</v>
+        <v>0.9523369651832329</v>
       </c>
       <c r="M23">
-        <v>1.04534314288204</v>
+        <v>0.9607088899062221</v>
       </c>
       <c r="N23">
-        <v>1.0146622285944</v>
+        <v>0.9851842795650151</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028993636218226</v>
+        <v>0.9333894967714813</v>
       </c>
       <c r="D24">
-        <v>1.03672777627287</v>
+        <v>0.9535498870894958</v>
       </c>
       <c r="E24">
-        <v>1.028828048312639</v>
+        <v>0.9491682308439375</v>
       </c>
       <c r="F24">
-        <v>1.044166631454694</v>
+        <v>0.9591434036622363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027109969158478</v>
+        <v>1.041799519043081</v>
       </c>
       <c r="J24">
-        <v>1.035230682611704</v>
+        <v>0.9637168284672177</v>
       </c>
       <c r="K24">
-        <v>1.04009529997259</v>
+        <v>0.9684449652555018</v>
       </c>
       <c r="L24">
-        <v>1.032223329746637</v>
+        <v>0.9641509571852849</v>
       </c>
       <c r="M24">
-        <v>1.047508439329427</v>
+        <v>0.9739281191119399</v>
       </c>
       <c r="N24">
-        <v>1.015383180444727</v>
+        <v>0.9897026805526927</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031988516264757</v>
+        <v>0.9507519445772246</v>
       </c>
       <c r="D25">
-        <v>1.039448063216481</v>
+        <v>0.9687744902160726</v>
       </c>
       <c r="E25">
-        <v>1.031416705469276</v>
+        <v>0.9635985815749341</v>
       </c>
       <c r="F25">
-        <v>1.046987237175486</v>
+        <v>0.9750706231793254</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027141142171841</v>
+        <v>1.043110417156424</v>
       </c>
       <c r="J25">
-        <v>1.037604366462381</v>
+        <v>0.977058492798629</v>
       </c>
       <c r="K25">
-        <v>1.042489171637353</v>
+        <v>0.9818776882585944</v>
       </c>
       <c r="L25">
-        <v>1.034483074221182</v>
+        <v>0.9767895518102089</v>
       </c>
       <c r="M25">
-        <v>1.050005018279794</v>
+        <v>0.9880686695371568</v>
       </c>
       <c r="N25">
-        <v>1.016212826519011</v>
+        <v>0.9945276644401534</v>
       </c>
     </row>
   </sheetData>
